--- a/desing/testmaker_all_table_definitions.xlsx
+++ b/desing/testmaker_all_table_definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="12960" activeTab="5"/>
+    <workbookView windowWidth="27660" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1900,7 +1900,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>40</v>
@@ -1959,8 +1959,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2281,8 +2281,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
